--- a/费用使用情况/现金日记账.xlsx
+++ b/费用使用情况/现金日记账.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="12765" windowHeight="5685" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="12765" windowHeight="5685" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="9月" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="107">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -763,6 +763,10 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>总计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -862,7 +866,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -926,6 +930,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2206,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3135,8 +3142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3279,10 +3286,14 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
+      <c r="A10" s="25" t="s">
+        <v>106</v>
+      </c>
       <c r="B10" s="7"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="10">
+        <v>1373</v>
+      </c>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
